--- a/AirlineProject_Python_Dictionary.xlsx
+++ b/AirlineProject_Python_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MSIST\Final Semester\Data Science\Project\airline-delay-and-cancellation-data-2009-2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intro to Data Mining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1119617-5FEE-4C14-A2D1-A6E1CE6DB5AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA78A7E-4F7A-475A-8C47-8EF5A605E1F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{B9730844-E9F8-4522-B47A-47B3A60659DB}"/>
+    <workbookView minimized="1" xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{B9730844-E9F8-4522-B47A-47B3A60659DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -551,17 +551,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D590AF58-64DF-4B1F-A110-1B03A040CC7A}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.4609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -581,7 +581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -592,7 +592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -603,7 +603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -614,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -625,7 +625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -636,7 +636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -647,7 +647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -658,7 +658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -669,7 +669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -680,7 +680,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -691,7 +691,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -702,7 +702,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -713,7 +713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -724,7 +724,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -735,7 +735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -746,7 +746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -757,7 +757,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -768,7 +768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -779,7 +779,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -790,7 +790,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -801,7 +801,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -812,7 +812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -823,7 +823,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -834,7 +834,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -845,7 +845,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -856,7 +856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="C30" s="2"/>
     </row>
